--- a/Kfolds/Kfold_results_CNS.xlsx
+++ b/Kfolds/Kfold_results_CNS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="pubmed_abstract" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pubmed_abstract1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -727,4 +728,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23.10_14.20</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.96794873</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.33555555</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.74876034</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.7029795</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8103</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>299</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6970014748026113</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23.10_14.30</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9102564</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.53992397</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.88842976</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.800451</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9550999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4599</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1921</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>121</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6222885111804868</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23.10_14.42</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.955414</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.48701298</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8636364</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.80128205</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2994</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>158</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6407019696274742</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23.10_14.55</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9423077</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.47882736</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.86021507</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.7894737</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4054</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1671</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>160</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5359842277696876</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_CNS.xlsx
+++ b/Kfolds/Kfold_results_CNS.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="pubmed_abstract" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pubmed_abstract1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pubmed_abstract2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1038,4 +1039,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24.10_11.08</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.974359</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.4318182</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.831405</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.77868855</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9808</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>200</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4926813452458773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24.10_11.22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9166667</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.4965278</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8694215</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.7839912</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2792</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>145</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6159498891869529</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24.10_11.36</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9235669</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.5471698</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8909091</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.8118701</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9554</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4249</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1607</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>120</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.630021341755742</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24.10_11.50</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.94871795</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.45398772</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.84615386</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.77894735</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9679</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4027</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3183</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>178</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6684215466995709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_CNS.xlsx
+++ b/Kfolds/Kfold_results_CNS.xlsx
@@ -10,6 +10,7 @@
     <sheet name="pubmed_abstract" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pubmed_abstract1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pubmed_abstract2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pubmed_abstract3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1349,4 +1350,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>02.11_11.00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.9358974</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55938697</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.89669424</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.8248588</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4108</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>115</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4967044427013788</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02.11_11.21</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9230769</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.46905538</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8553719</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.773362</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9550999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3697</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1877</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>163</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6133372448995466</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02.11_11.37</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.88535035</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.6123348</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.91239667</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.8128655</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9618</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4441</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0838</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>88</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5835450830273941</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02.11_11.59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.98717946</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.3802469</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.79073614</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.7482993</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9808</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4461</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9623</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>251</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5590404968281262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_CNS.xlsx
+++ b/Kfolds/Kfold_results_CNS.xlsx
@@ -11,6 +11,7 @@
     <sheet name="pubmed_abstract1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pubmed_abstract2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="pubmed_abstract3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pubmed_abstract4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1660,4 +1661,314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08.11_14.15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.9807692</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.41917807</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.822314</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.7735086</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9808</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4227</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>212</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6282509632530759</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08.11_14.31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9423077</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.44680852</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8421488</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.7712487</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9550999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7235315501934192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08.11_14.48</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9426752</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.4949833</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8677686</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.798274</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4169</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>151</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5784036795623967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08.11_15.06</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9423077</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.49830508</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8701406</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.7997824</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4164</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2936</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>148</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6049380209602293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Kfolds/Kfold_results_CNS.xlsx
+++ b/Kfolds/Kfold_results_CNS.xlsx
@@ -12,6 +12,7 @@
     <sheet name="pubmed_abstract2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="pubmed_abstract3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="pubmed_abstract4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pubmed_abstract5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1971,4 +1972,426 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fold</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fbeta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Best Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Best Precision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Best Threshold</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>False Neg(0.5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>False Pos(0.5)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Val loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fold_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.11_09.55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.9519231</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.51295334</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.87732345</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.81280786</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9808</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4016</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>94</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.648995862683145</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fold_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.11_10.12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.8942308</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.5705522</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8996283</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.8031088</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9712</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4244</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07290000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4516606180042755</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fold_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.11_10.34</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.93333334</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.5632184</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8971499</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.8249158</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4605</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4879252080146859</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fold_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.11_10.59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9519231</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.48058254</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8610422</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.79581994</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9519</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4925</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>107</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5145628160638053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fold_4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.11_11.19</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.9230769</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55813956</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.89578164</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.81632656</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9519</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4231</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6389712936631063</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fold_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.11_11.43</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70542634</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.93672454</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.8348624</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9712</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4089</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0819</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>38</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5229896772198561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>